--- a/output/关注信息流-预上新组合列表.xlsx
+++ b/output/关注信息流-预上新组合列表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
     <t>类目名称</t>
   </si>
@@ -68,28 +68,115 @@
     <t>[911296874104, 911291846516, 911783053348, 912209080696, 911281882859]</t>
   </si>
   <si>
-    <t>[911291846516, 911281882859, 911783053348, 912209080696]</t>
+    <t>[911296874104, 912209080696, 911281882859, 911783053348]</t>
+  </si>
+  <si>
+    <t>911296874104</t>
+  </si>
+  <si>
+    <t>912209080696</t>
+  </si>
+  <si>
+    <t>911281882859</t>
+  </si>
+  <si>
+    <t>911783053348</t>
+  </si>
+  <si>
+    <t>夏日T恤4波来袭！</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，释放你的独立与自信，正如张爱玲所说：“生命是一袭华美的袍，爬满了蚤子。”但我们要做袍子里的女王。</t>
+  </si>
+  <si>
+    <t>预上新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  衬衫</t>
+  </si>
+  <si>
+    <t>[911758441147, 912181628593, 910934695869, 912170348187, 911718545814, 909349522281, 908917718187, 908597187041]</t>
+  </si>
+  <si>
+    <t>[911718545814, 912170348187, 908597187041, 912181628593]</t>
+  </si>
+  <si>
+    <t>911718545814</t>
+  </si>
+  <si>
+    <t>912170348187</t>
+  </si>
+  <si>
+    <t>908597187041</t>
+  </si>
+  <si>
+    <t>912181628593</t>
+  </si>
+  <si>
+    <t>衬衫夏4波，气质满分！</t>
+  </si>
+  <si>
+    <t>轻盈飘逸的衬衫，成就你的知性与洒脱，“走自己的路，让别人说去吧！”，你的精彩无需他人定义。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  裤子&gt;  休闲裤</t>
+  </si>
+  <si>
+    <t>[911241866698, 912154148934, 912074188966, 909970307976]</t>
+  </si>
+  <si>
+    <t>911241866698</t>
+  </si>
+  <si>
+    <t>912154148934</t>
+  </si>
+  <si>
+    <t>912074188966</t>
+  </si>
+  <si>
+    <t>909970307976</t>
+  </si>
+  <si>
+    <t>休闲裤夏4波，舒适又时尚！</t>
+  </si>
+  <si>
+    <t>自在随性的休闲裤，开启你的舒适与便捷生活，正如林徽因所说：“你是爱，是暖，是希望，你是人间的四月天。”做最舒适的自己。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  连衣裙</t>
+  </si>
+  <si>
+    <t>[910955995740, 909836424285, 908619451521, 909762252058, 908854013761]</t>
+  </si>
+  <si>
+    <t>[908854013761, 910955995740, 908619451521, 909836424285]</t>
+  </si>
+  <si>
+    <t>908854013761</t>
+  </si>
+  <si>
+    <t>910955995740</t>
+  </si>
+  <si>
+    <t>908619451521</t>
+  </si>
+  <si>
+    <t>909836424285</t>
+  </si>
+  <si>
+    <t>连衣裙夏4波，优雅动人！</t>
+  </si>
+  <si>
+    <t>优雅迷人的连衣裙，穿上你的自信与魅力，正如奥黛丽·赫本的优雅气质，诠释独立女性的万种风情。</t>
+  </si>
+  <si>
+    <t>[911783053348, 911291846516, 912209080696, 911296874104]</t>
   </si>
   <si>
     <t>911291846516</t>
   </si>
   <si>
-    <t>911281882859</t>
-  </si>
-  <si>
-    <t>911783053348</t>
-  </si>
-  <si>
-    <t>912209080696</t>
-  </si>
-  <si>
-    <t>夏4波！T恤清凉来袭！</t>
-  </si>
-  <si>
-    <t>舒适透气的T恤，给你夏日清凉自由，正如“生命是一场华丽的冒险” ，勇敢追寻你的独立人生！</t>
-  </si>
-  <si>
-    <t>预上新</t>
+    <t>简约百搭的T恤，穿出你的随性与个性，“做你自己，别为了取悦他人而改变。”，展现真我风采。</t>
   </si>
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  半身裙</t>
@@ -98,295 +185,199 @@
     <t>[911770345582, 910939227079, 910928947788, 911246834175, 910924399717, 910272246715, 910761301732, 911167136627, 909372069042, 909775308036]</t>
   </si>
   <si>
-    <t>[910939227079, 910761301732, 910272246715, 911167136627]</t>
+    <t>[909775308036, 910939227079, 911246834175, 910272246715]</t>
+  </si>
+  <si>
+    <t>909775308036</t>
   </si>
   <si>
     <t>910939227079</t>
   </si>
   <si>
+    <t>911246834175</t>
+  </si>
+  <si>
+    <t>910272246715</t>
+  </si>
+  <si>
+    <t>半身裙夏4波，美翻天！</t>
+  </si>
+  <si>
+    <t>浪漫灵动的半身裙，展现你的温柔与力量，正如歌德所说：“谁要是游戏人生，他就一事无成；只有热爱生命的人，才能得到生命的报答。”</t>
+  </si>
+  <si>
+    <t>[908917718187, 908597187041, 912181628593, 911718545814]</t>
+  </si>
+  <si>
+    <t>908917718187</t>
+  </si>
+  <si>
+    <t>干练简洁的衬衫，塑造你的职场魅力与自信，“女人一生只有一次青春，但这唯一的青春却应当闪闪发光。”，活出精彩人生。</t>
+  </si>
+  <si>
+    <t>舒适修身的休闲裤，搭配出你的时尚与格调，“你要么活得精彩，要么活得有意义。”，选择你想要的生活方式。</t>
+  </si>
+  <si>
+    <t>[909762252058, 908619451521, 909836424285, 908854013761]</t>
+  </si>
+  <si>
+    <t>909762252058</t>
+  </si>
+  <si>
+    <t>精致优雅的连衣裙，展现你的独特与魅力，做独立自信的自己，拥有属于你的精彩人生。</t>
+  </si>
+  <si>
+    <t>[911281882859, 912209080696, 911296874104, 911291846516]</t>
+  </si>
+  <si>
+    <t>夏日T恤来袭！</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，让你的夏日轻松自在，正如歌德所说：“只有在行动中，才能获得自由。”</t>
+  </si>
+  <si>
+    <t>[910761301732, 910939227079, 911770345582, 910928947788]</t>
+  </si>
+  <si>
     <t>910761301732</t>
   </si>
   <si>
-    <t>910272246715</t>
-  </si>
-  <si>
-    <t>911167136627</t>
-  </si>
-  <si>
-    <t>夏4波！半身裙超显瘦！</t>
-  </si>
-  <si>
-    <t>百褶裙飘逸灵动，舞动你的自信与优雅，正如“女人最大的魅力是独立” ，做最闪耀的自己！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  衬衫</t>
-  </si>
-  <si>
-    <t>[911758441147, 912181628593, 910934695869, 912170348187, 911718545814, 909349522281, 908917718187, 908597187041]</t>
-  </si>
-  <si>
-    <t>[911758441147, 911718545814, 910934695869, 908917718187]</t>
+    <t>911770345582</t>
+  </si>
+  <si>
+    <t>910928947788</t>
+  </si>
+  <si>
+    <t>半身裙夏4波</t>
+  </si>
+  <si>
+    <t>百褶裙翩跹，舞动你的自信，正如奥黛丽·赫本所说：“优雅是唯一不会褪色的美丽。”</t>
+  </si>
+  <si>
+    <t>[911758441147, 909349522281, 908597187041, 908917718187]</t>
   </si>
   <si>
     <t>911758441147</t>
   </si>
   <si>
-    <t>911718545814</t>
+    <t>909349522281</t>
+  </si>
+  <si>
+    <t>衬衫夏4波来啦</t>
+  </si>
+  <si>
+    <t>简洁干练的衬衫，成就你的职场魅力，正如马丁·路德·金所说：“自由并非只是摆脱束缚，而是获得能力。”</t>
+  </si>
+  <si>
+    <t>休闲裤夏4波</t>
+  </si>
+  <si>
+    <t>柔软亲肤的休闲裤，给你舒适的穿着体验，正如梭罗所说：“我渴望活得自由而有尊严。”</t>
+  </si>
+  <si>
+    <t>[909836424285, 908854013761, 909762252058, 910955995740]</t>
+  </si>
+  <si>
+    <t>连衣裙夏日款</t>
+  </si>
+  <si>
+    <t>优雅飘逸的连衣裙，展现你的独特气质，正如林徽因所说：“你是爱，是暖，是希望，你是人间的四月天。”</t>
+  </si>
+  <si>
+    <t>[911296874104, 911291846516, 912209080696, 911783053348]</t>
+  </si>
+  <si>
+    <t>夏日T恤必备</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，给你满满的安全感，正如伍尔夫所说：“一个女人必须拥有金钱和一个房间，才能写作。”</t>
+  </si>
+  <si>
+    <t>[909775308036, 910928947788, 910939227079, 910272246715]</t>
+  </si>
+  <si>
+    <t>夏日百褶裙</t>
+  </si>
+  <si>
+    <t>百褶裙灵动飘逸，展现你的青春活力，正如泰戈尔所说：“天空没有留下鸟的痕迹，但我已飞过。”</t>
+  </si>
+  <si>
+    <t>[908917718187, 910934695869, 911718545814, 911758441147]</t>
   </si>
   <si>
     <t>910934695869</t>
   </si>
   <si>
-    <t>908917718187</t>
-  </si>
-  <si>
-    <t>夏4波！衬衫优雅气质！</t>
-  </si>
-  <si>
-    <t>精致衬衫，打造你的职场魅力，正如“你必须非常努力，才能看起来毫不费力” ，展现你的独立女性风采！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  裤子&gt;  休闲裤</t>
-  </si>
-  <si>
-    <t>[911241866698, 912154148934, 912074188966, 909970307976]</t>
-  </si>
-  <si>
-    <t>911241866698</t>
-  </si>
-  <si>
-    <t>912154148934</t>
-  </si>
-  <si>
-    <t>912074188966</t>
-  </si>
-  <si>
-    <t>909970307976</t>
-  </si>
-  <si>
-    <t>夏4波！休闲裤舒适百搭！</t>
-  </si>
-  <si>
-    <t>休闲裤舒适百搭，释放你的自在与活力，正如“做一个独立的女子，不依附，不妥协，活出自我” ，拥有舒适的独立！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  连衣裙</t>
-  </si>
-  <si>
-    <t>[910955995740, 909836424285, 908619451521, 909762252058, 908854013761]</t>
-  </si>
-  <si>
-    <t>[910955995740, 908854013761, 909836424285, 908619451521]</t>
-  </si>
-  <si>
-    <t>910955995740</t>
-  </si>
-  <si>
-    <t>908854013761</t>
-  </si>
-  <si>
-    <t>909836424285</t>
-  </si>
-  <si>
-    <t>908619451521</t>
-  </si>
-  <si>
-    <t>夏4波！连衣裙仙气飘飘！</t>
-  </si>
-  <si>
-    <t>优雅连衣裙，展现你的女性魅力，正如“你的身体里住着个老灵魂”，独立的你更有魅力！</t>
-  </si>
-  <si>
-    <t>[911291846516, 911281882859, 911296874104, 911783053348]</t>
-  </si>
-  <si>
-    <t>911296874104</t>
-  </si>
-  <si>
-    <t>夏4波！T恤舒适透气！</t>
-  </si>
-  <si>
-    <t>舒适透气的T恤，给你夏日清凉自由，让你感受“独立像一件美丽的衣裳，穿在身上” 的自在！</t>
-  </si>
-  <si>
-    <t>[910272246715, 911167136627, 910761301732, 909775308036]</t>
-  </si>
-  <si>
-    <t>909775308036</t>
-  </si>
-  <si>
-    <t>夏4波！半身裙美美哒！</t>
-  </si>
-  <si>
-    <t>百褶裙飘逸灵动，穿出你的自信与优雅，“女人要独立，要强大，要活出自我” ，这就是你的风格！</t>
-  </si>
-  <si>
-    <t>[909349522281, 912170348187, 911758441147, 911718545814]</t>
-  </si>
-  <si>
-    <t>909349522281</t>
-  </si>
-  <si>
-    <t>912170348187</t>
-  </si>
-  <si>
-    <t>夏4波！衬衫高级感！</t>
-  </si>
-  <si>
-    <t>精致衬衫，衬托你的职场气场，正如“你要做一个不动声色的大人，不抱怨，不解释，不申辩，做你自己。”，展现你的独立自信！</t>
-  </si>
-  <si>
-    <t>夏4波！休闲裤好穿不累！</t>
-  </si>
-  <si>
-    <t>休闲裤舒适百搭，释放你的自在与活力，“做个精致的利己主义者，先把自己照顾好” ，独立的你更出色！</t>
-  </si>
-  <si>
-    <t>[909836424285, 909762252058, 908619451521, 908854013761]</t>
-  </si>
-  <si>
-    <t>909762252058</t>
-  </si>
-  <si>
-    <t>夏4波！连衣裙浪漫约会！</t>
-  </si>
-  <si>
-    <t>优雅连衣裙，展现你的独特魅力，正如“真正的独立是活出自我，不为任何人而活。”，做最真实的自己！</t>
-  </si>
-  <si>
-    <t>[911783053348, 911281882859, 912209080696, 911291846516]</t>
-  </si>
-  <si>
-    <t>夏4波T恤来啦！</t>
-  </si>
-  <si>
-    <t>舒适透气的T恤，给你自由自在的舒适感，正如三毛所说“心之所向，素履以往，生如逆旅，一苇以航”。</t>
-  </si>
-  <si>
-    <t>[910761301732, 911167136627, 911246834175, 909775308036]</t>
-  </si>
-  <si>
-    <t>911246834175</t>
-  </si>
-  <si>
-    <t>夏4波半身裙上新</t>
-  </si>
-  <si>
-    <t>百褶裙的优雅灵动，展现你的独立自信，正如戴安娜王妃所说：“成为你自己的女王”。</t>
-  </si>
-  <si>
-    <t>[908917718187, 911758441147, 910934695869, 912181628593]</t>
-  </si>
-  <si>
-    <t>912181628593</t>
-  </si>
-  <si>
-    <t>夏4波衬衫必入</t>
-  </si>
-  <si>
-    <t>精致衬衫，衬托你的干练和优雅，正如伍尔夫所说：“一个女人必须拥有自己的收入和自己的一间房”。</t>
-  </si>
-  <si>
-    <t>夏4波休闲裤真香</t>
-  </si>
-  <si>
-    <t>休闲裤的随意舒适，让你轻松应对生活的挑战，正如亦舒所说：“做一个独立的女子，不依附于任何人”。</t>
-  </si>
-  <si>
-    <t>[910955995740, 909836424285, 908854013761, 908619451521]</t>
-  </si>
-  <si>
-    <t>夏4波连衣裙绝美</t>
-  </si>
-  <si>
-    <t>飘逸连衣裙，为你增添一份浪漫和自信，正如Coco Chanel所说：“时尚易逝，风格永存”。</t>
-  </si>
-  <si>
-    <t>[911291846516, 911281882859, 912209080696, 911296874104]</t>
-  </si>
-  <si>
-    <t>夏日T恤清凉来袭</t>
-  </si>
-  <si>
-    <t>优质T恤，简约而不简单，正如林徽因所说：“你是爱，是暖，是希望，你是人间的四月天”。</t>
-  </si>
-  <si>
-    <t>[910939227079, 910928947788, 910761301732, 911246834175]</t>
-  </si>
-  <si>
-    <t>910928947788</t>
-  </si>
-  <si>
-    <t>夏日半身裙超美</t>
-  </si>
-  <si>
-    <t>百搭半身裙，风格多变，适合你的多种场合，正如奥黛丽·赫本所说：“优雅是唯一不会过时的美”。</t>
-  </si>
-  <si>
-    <t>[908917718187, 908597187041, 911758441147, 909349522281]</t>
-  </si>
-  <si>
-    <t>908597187041</t>
-  </si>
-  <si>
-    <t>夏日衬衫穿搭</t>
-  </si>
-  <si>
-    <t>经典衬衫，百搭又时尚，正如张爱玲所说：“出名要趁早，来得太晚，快乐会少一分”。</t>
-  </si>
-  <si>
-    <t>夏日休闲裤舒适</t>
-  </si>
-  <si>
-    <t>舒适休闲裤，给你带来自在的穿着体验，正如弗吉尼亚·伍尔夫所说：“我将自己送给了世界。”</t>
-  </si>
-  <si>
-    <t>[909762252058, 910955995740, 908619451521, 908854013761]</t>
-  </si>
-  <si>
-    <t>夏日连衣裙度假</t>
-  </si>
-  <si>
-    <t>精致连衣裙，尽显女性魅力，正如玛丽莲·梦露所说：“我只相信爱情和我的衣橱。”</t>
-  </si>
-  <si>
-    <t>[911783053348, 911291846516, 911281882859, 911296874104]</t>
-  </si>
-  <si>
-    <t>舒适透气的T恤，给你自在的穿着体验，正如张爱玲所说“出名要趁早，来得太晚，快乐要少一分。”，把握当下，做最自信的自己。</t>
-  </si>
-  <si>
-    <t>[911770345582, 910924399717, 909775308036, 910928947788]</t>
-  </si>
-  <si>
-    <t>911770345582</t>
+    <t>清凉衬衫上新</t>
+  </si>
+  <si>
+    <t>气质衬衫，提升你的个人魅力，正如三毛所说：“一个人至少拥有一个梦想，有一个理由去坚强。”</t>
+  </si>
+  <si>
+    <t>夏日休闲裤</t>
+  </si>
+  <si>
+    <t>舒适百搭的休闲裤，陪你走遍世界的每一个角落，正如冰心所说：“成功的花，人们只惊羡它现时的明艳！然而当初它的芽儿，浸透了奋斗的泪泉，洒遍了牺牲的血雨。”</t>
+  </si>
+  <si>
+    <t>[908854013761, 909762252058, 908619451521, 909836424285]</t>
+  </si>
+  <si>
+    <t>夏日连衣裙</t>
+  </si>
+  <si>
+    <t>优雅自信的连衣裙，点亮你的每一个瞬间，正如张爱玲所说：“于千万人之中，遇见你所遇见的人；于千万年之中，时间的无涯的荒野里，没有早一步，也没有晚一步，刚巧赶上了。”</t>
+  </si>
+  <si>
+    <t>[912209080696, 911281882859, 911291846516, 911783053348]</t>
+  </si>
+  <si>
+    <t>夏4波！T恤清凉来袭</t>
+  </si>
+  <si>
+    <t>做最真实的自己，穿上舒适透气的T恤，自在行走，奔赴属于你的自由天地。</t>
+  </si>
+  <si>
+    <t>[910761301732, 911246834175, 910928947788, 910272246715]</t>
+  </si>
+  <si>
+    <t>夏4波！半身裙飘逸动人</t>
+  </si>
+  <si>
+    <t>独立女性的优雅姿态，从一条飘逸的半身裙开始，自信绽放，魅力无限。</t>
+  </si>
+  <si>
+    <t>[908597187041, 909349522281, 912170348187, 908917718187]</t>
+  </si>
+  <si>
+    <t>夏4波！衬衫气质满分</t>
+  </si>
+  <si>
+    <t>衬衫的挺括，如同你坚韧的内心，成就独立自信的你，去创造属于自己的精彩人生！</t>
+  </si>
+  <si>
+    <t>夏4波！休闲裤舒适百搭</t>
+  </si>
+  <si>
+    <t>舒适的休闲裤，陪你走过生活的山山水水，自由舒适，不负韶华。</t>
+  </si>
+  <si>
+    <t>[909836424285, 908854013761, 910955995740, 908619451521]</t>
+  </si>
+  <si>
+    <t>夏4波！连衣裙优雅迷人</t>
+  </si>
+  <si>
+    <t>一件优雅的连衣裙，让你在任何场合都散发自信光芒，“你必须非常努力，才能看起来毫不费力”。</t>
+  </si>
+  <si>
+    <t>[910924399717, 910272246715, 911246834175, 910761301732]</t>
   </si>
   <si>
     <t>910924399717</t>
   </si>
   <si>
-    <t>夏4波！半身裙显瘦神器！</t>
-  </si>
-  <si>
-    <t>百褶飘逸的半身裙，舞动你的优雅姿态，“我为我自己而活”——独立女性的宣言，穿上它，释放你的魅力。</t>
-  </si>
-  <si>
-    <t>[912170348187, 912181628593, 910934695869, 908917718187]</t>
-  </si>
-  <si>
-    <t>夏4波！衬衫优雅通勤！</t>
-  </si>
-  <si>
-    <t>精致剪裁的衬衫，凸显你的干练气质，正如伍尔夫所言“一个女人要有自己的收入，有自己的事业”，成就独立的你。</t>
-  </si>
-  <si>
-    <t>柔软亲肤的休闲裤，带来舒适的日常穿着，不为取悦他人而活，“活出真我”是当代女性的最佳注脚。</t>
-  </si>
-  <si>
-    <t>[908854013761, 910955995740, 909836424285, 909762252058]</t>
-  </si>
-  <si>
-    <t>一件完美的连衣裙，让你自信闪耀，独立女性不需要依附于任何人，“我的命运掌握在我自己手中”——掌控人生的你，值得拥有。</t>
+    <t>百褶裙摆间，舞动你的优雅与自由，正如弗里达·卡罗的画作般，展现生命的张力与美丽。</t>
   </si>
 </sst>
 </file>
@@ -1380,13 +1371,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="82.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1501,28 +1495,28 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -1530,10 +1524,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1565,34 +1559,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -1600,34 +1594,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -1641,28 +1635,28 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
         <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -1676,28 +1670,28 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -1705,34 +1699,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1740,34 +1734,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -1775,34 +1769,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1816,28 +1810,28 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s">
-        <v>81</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1851,28 +1845,28 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
       </c>
       <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1880,34 +1874,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
         <v>20</v>
@@ -1915,34 +1909,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
@@ -1950,34 +1944,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1991,28 +1985,28 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -2026,28 +2020,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -2055,13 +2049,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2070,7 +2064,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2079,10 +2073,10 @@
         <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
         <v>20</v>
@@ -2090,34 +2084,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -2125,34 +2119,34 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
@@ -2166,28 +2160,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -2201,28 +2195,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -2230,71 +2224,71 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>42</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s">
-        <v>119</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" t="s">
         <v>20</v>
       </c>
     </row>
